--- a/data/pigmeat_exports2.xlsx
+++ b/data/pigmeat_exports2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Victor\KCL\Thesis\Mapas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Victor\UCLM\Master\Clases\Seminario metodologia\Audiovisual\Web\Luchando_contra_futuras_pandemias\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A876F03-0231-4DCD-91F2-4143E3C738AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA77C602-F448-40BC-9DA2-1306C36A2222}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{31BB488B-8EF4-40F3-ADDA-95FB2605CAB6}"/>
   </bookViews>
@@ -39,16 +39,16 @@
     <t>China</t>
   </si>
   <si>
-    <t>Year</t>
-  </si>
-  <si>
     <t>EU</t>
   </si>
   <si>
-    <t>Tonnes</t>
+    <t>Año</t>
   </si>
   <si>
-    <t>Destination</t>
+    <t>Toneladas</t>
+  </si>
+  <si>
+    <t>Destino</t>
   </si>
 </sst>
 </file>
@@ -164,7 +164,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tonnes</c:v>
+                  <c:v>Toneladas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -506,7 +506,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tonnes</c:v>
+                  <c:v>Toneladas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -632,7 +632,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Destination</c:v>
+                  <c:v>Destino</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2408,14 +2408,14 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2587,7 +2587,7 @@
         <v>948243</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -2598,7 +2598,7 @@
         <v>1015497</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -2609,7 +2609,7 @@
         <v>967776</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -2620,7 +2620,7 @@
         <v>992442</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -2631,7 +2631,7 @@
         <v>1066028</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -2642,7 +2642,7 @@
         <v>1086951</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -2653,7 +2653,7 @@
         <v>1129256</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -2664,7 +2664,7 @@
         <v>1193410</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -2675,7 +2675,7 @@
         <v>1222408</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -2686,7 +2686,7 @@
         <v>1319302</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -2697,7 +2697,7 @@
         <v>1295795</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -2708,7 +2708,7 @@
         <v>1362236</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -2719,7 +2719,7 @@
         <v>1188341</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
